--- a/data_utils/Soil endmember mastersheet v2.xlsx
+++ b/data_utils/Soil endmember mastersheet v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecoleman/Documents/RaCA-SOC-a-spectrum-analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecol/Documents/RaCA-Analysis/data_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379EEF9-420A-9D4D-960D-548A0897E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD22E2-5B3F-2844-9E41-156E97337D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withspectra_density_radius" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>for the three rows highlighted in red, their spectra were previously missing from the uSGS ASD spectra sheet. sorry for the confusion!
@@ -75,6 +76,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>some beta are in rad, some are in degrees
@@ -89,6 +91,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>how to calculate unit cell volume based on different crystal system:
@@ -116,6 +119,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>for the groups with more than 1 members, the mass composition is obtained by (group %)/(#of members in the group)
@@ -132,6 +136,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>should we consider all these 47 minerals, which are not classified as any of the named mineral components in the table below, as "Others"? and then take their individual composition as 0.2/47?
@@ -156,6 +161,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Color notation
@@ -173,6 +179,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>only for those minerals that can be found in the USGS spectral library
@@ -187,6 +194,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Full spectra for each mineral, separated into two worksheets based on the spectrometer used - ASD or BECKMAN
@@ -201,6 +209,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>literature disagrees
@@ -215,6 +224,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>combined spectra for two minerals
@@ -239,6 +249,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>these peak values are specifically stated in literature, and mostly matches the USGS library, though the USGS spectra may be interfered with some impurities
@@ -253,6 +264,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>full spectra for the minerals that are also included in the USGS library
@@ -281,6 +293,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Found the spectra for different X&amp;Y combinations
@@ -305,6 +318,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>how to calculate unit cell volume based on different crystal system:
@@ -320,6 +334,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Primary minerals: typically present in sand or silt - can assume sand or silt size for simplicity
@@ -330,13 +345,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="K79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>maybe the silt range
@@ -349,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="947">
   <si>
     <t>Number</t>
   </si>
@@ -3464,6 +3480,159 @@
   <si>
     <t>sulfur</t>
   </si>
+  <si>
+    <t>cuprite</t>
+  </si>
+  <si>
+    <t>hydroxylapatite</t>
+  </si>
+  <si>
+    <t>niter</t>
+  </si>
+  <si>
+    <t>polyhalite</t>
+  </si>
+  <si>
+    <t>cerianite</t>
+  </si>
+  <si>
+    <t>Inorganics</t>
+  </si>
+  <si>
+    <t>sulfate</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>KNO3</t>
+  </si>
+  <si>
+    <t>(Ce+4,Th)O2</t>
+  </si>
+  <si>
+    <t>0.542 * 0.542 * 0.542</t>
+  </si>
+  <si>
+    <t>Cu2O</t>
+  </si>
+  <si>
+    <t>Isometric, Hexoctahedral</t>
+  </si>
+  <si>
+    <t>0.42685 * 0.42685 * 0.42685</t>
+  </si>
+  <si>
+    <t>0.5414 * 0.9164 * 0.6431</t>
+  </si>
+  <si>
+    <t>eskolaite</t>
+  </si>
+  <si>
+    <t>Cr2O3</t>
+  </si>
+  <si>
+    <t>0.495 * 0.1358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2Ca2Mg(SO4)4·2H2O </t>
+  </si>
+  <si>
+    <t>Triclinic</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-3259.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-1411.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-1172.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-2917.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-929.html</t>
+  </si>
+  <si>
+    <t>2.21-2.238</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-2831.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-1784.html</t>
+  </si>
+  <si>
+    <t>2.9-3.26</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-2078.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-859.html</t>
+  </si>
+  <si>
+    <t>2.84-2.86</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-1304.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-4031.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-1856.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-1719.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-1493.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-2379.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-3486.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-2013.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-4421.html</t>
+  </si>
+  <si>
+    <t>https://mindat.org/min-1016.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-1082.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-3647.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-307.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-2482.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-234.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-549.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-2725.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-1393.html</t>
+  </si>
+  <si>
+    <t>https://www.mindat.org/min-695.html</t>
+  </si>
 </sst>
 </file>
 
@@ -3472,7 +3641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3568,8 +3737,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3648,6 +3824,12 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3676,7 +3858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3733,6 +3915,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3868,7 +4052,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5095875" cy="2981325"/>
@@ -3902,7 +4086,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5019675" cy="3562350"/>
@@ -4138,7 +4322,7 @@
   </sheetPr>
   <dimension ref="A1:AI90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7800,7 +7984,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26933,19 +27117,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S155"/>
+  <dimension ref="A1:S163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="P138" sqref="P138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
@@ -26956,7 +27141,7 @@
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27075,12 +27260,16 @@
       <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>0.49514999999999998</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>923</v>
+      </c>
       <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
@@ -27106,17 +27295,27 @@
       <c r="H4" s="3">
         <v>3.16</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="I4" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.25</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>0.79779999999999995</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27140,19 +27339,28 @@
       <c r="H5" s="3">
         <v>2.72</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="I5">
+        <v>2.7101999999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.7109999999999999</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>0.36785000000000001</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
@@ -27178,29 +27386,39 @@
       <c r="H6" s="3">
         <v>2.85</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="I6" s="36" t="s">
+        <v>927</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.8759999999999999</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>0.31945000000000001</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="P6" t="s">
+        <v>928</v>
+      </c>
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>728</v>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -27208,33 +27426,38 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>729</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>801</v>
+        <v>41</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.70653999999999995</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="P7" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
+      <c r="C8" s="9" t="s">
+        <v>730</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>33</v>
@@ -27242,96 +27465,104 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>731</v>
       </c>
       <c r="H8" s="3">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>41</v>
+        <v>803</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>21</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>730</v>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>731</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3">
-        <v>1.44</v>
+        <v>5.01</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>803</v>
+      <c r="K9" s="3">
+        <v>0.54200000000000004</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>804</v>
+        <v>46</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5.01</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>0.54200000000000004</v>
+        <v>49</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.42798000000000003</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
+      <c r="C11" s="9" t="s">
+        <v>732</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>48</v>
@@ -27343,37 +27574,33 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>50</v>
+        <v>805</v>
       </c>
       <c r="J11" s="3">
-        <v>2.44</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>51</v>
+        <v>806</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>52</v>
+        <v>807</v>
       </c>
       <c r="M11" s="3">
-        <v>0.42798000000000003</v>
+        <v>0.10594000000000001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
-        <v>22</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>48</v>
@@ -27381,37 +27608,23 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.10594000000000001</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>808</v>
-      </c>
+      <c r="I12" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>733</v>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>48</v>
@@ -27422,20 +27635,34 @@
         <v>55</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>3.03</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.11801</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>48</v>
@@ -27443,37 +27670,37 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J14" s="3">
-        <v>3.38</v>
+        <v>3.9969999999999999</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M14" s="3">
-        <v>0.11801</v>
+        <v>0.25353999999999999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>60</v>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>48</v>
@@ -27481,37 +27708,41 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3.9969999999999999</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>64</v>
       </c>
       <c r="M15" s="3">
-        <v>0.25353999999999999</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>65</v>
+        <v>0.30271999999999999</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>48</v>
@@ -27519,37 +27750,38 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3">
-        <v>5.26</v>
+        <v>4.26</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.13861999999999999</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
-        <v>22</v>
+      <c r="P16" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>69</v>
+      <c r="C17" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>48</v>
@@ -27557,33 +27789,38 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H17" s="3">
-        <v>4.26</v>
+        <v>4.09</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>0.14937</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="P17" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>48</v>
@@ -27591,33 +27828,35 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H18" s="3">
-        <v>4.09</v>
+        <v>4.87</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
-        <v>74</v>
+      <c r="K18" s="3">
+        <v>0.83399999999999996</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>46</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="S18" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>75</v>
+      <c r="C19" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>48</v>
@@ -27625,36 +27864,41 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H19" s="3">
-        <v>4.87</v>
+        <v>3.96</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>0.83399999999999996</v>
+      <c r="K19" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.21007999999999999</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="P19" t="s">
+        <v>932</v>
+      </c>
       <c r="S19" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>48</v>
@@ -27662,17 +27906,17 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H20" s="3">
-        <v>3.96</v>
+        <v>4.87</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>79</v>
+      <c r="K20" s="3">
+        <v>0.83899999999999997</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -27680,18 +27924,18 @@
         <v>21</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>81</v>
+      <c r="C21" s="9" t="s">
+        <v>734</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>48</v>
@@ -27699,36 +27943,40 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4.87</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <v>0.83899999999999997</v>
+        <v>735</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3.39</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>810</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
-        <v>21</v>
+        <v>811</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.20866999999999999</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>812</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>83</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>48</v>
@@ -27736,40 +27984,23 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>735</v>
+        <v>264</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3.39</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0.20866999999999999</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>812</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>813</v>
-      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>48</v>
@@ -27777,23 +28008,23 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>264</v>
+        <v>738</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <v>3</v>
+        <v>4.95</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>737</v>
+      <c r="C24" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>48</v>
@@ -27801,23 +28032,37 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>738</v>
+        <v>85</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>4.95</v>
-      </c>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5.5789999999999999E-2</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>84</v>
+      <c r="C25" s="9" t="s">
+        <v>739</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>48</v>
@@ -27825,37 +28070,23 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="3">
-        <v>5.1890000000000001</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="3">
-        <v>5.5789999999999999E-2</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="I25" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>48</v>
@@ -27863,23 +28094,23 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>264</v>
+        <v>741</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>3.65</v>
+        <v>4.34</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>740</v>
+      <c r="C27" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>48</v>
@@ -27887,23 +28118,41 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>4.34</v>
+        <v>91</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="3">
+        <v>6.2429999999999999E-2</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>90</v>
+      <c r="C28" s="9" t="s">
+        <v>742</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>48</v>
@@ -27914,11 +28163,11 @@
         <v>91</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>814</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>93</v>
+        <v>815</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>88</v>
@@ -27930,18 +28179,18 @@
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>742</v>
+      <c r="C29" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>48</v>
@@ -27949,60 +28198,72 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>814</v>
+        <v>97</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>815</v>
+        <v>98</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M29" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.31601000000000001</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>935</v>
+      </c>
       <c r="Q29" s="3" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3.2709999999999999</v>
+      </c>
       <c r="K30" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.28992000000000001</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3" t="s">
@@ -28011,13 +28272,13 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>99</v>
+      <c r="C31" s="9" t="s">
+        <v>743</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>100</v>
@@ -28029,27 +28290,13 @@
         <v>102</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>103</v>
+        <v>744</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="J31" s="3">
-        <v>3.2709999999999999</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0.28992000000000001</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
         <v>94</v>
@@ -28057,13 +28304,13 @@
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>743</v>
+      <c r="C32" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>100</v>
@@ -28071,31 +28318,43 @@
       <c r="E32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>4.3899999999999997</v>
+        <v>107</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.26112999999999997</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>936</v>
+      </c>
       <c r="Q32" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>106</v>
+      <c r="C33" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>100</v>
@@ -28105,37 +28364,41 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.36848999999999998</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P33" s="3"/>
+      <c r="P33" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="Q33" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>110</v>
+      <c r="C34" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>100</v>
@@ -28145,39 +28408,35 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>94</v>
+        <v>58</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.34372999999999998</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>116</v>
+      <c r="C35" s="14" t="s">
+        <v>335</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>100</v>
@@ -28187,35 +28446,22 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0.34372999999999998</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>120</v>
+        <v>745</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>335</v>
+      <c r="C36" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>100</v>
@@ -28225,22 +28471,37 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3" t="s">
-        <v>94</v>
+        <v>122</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3.149</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.34244000000000002</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>121</v>
+      <c r="C37" s="9" t="s">
+        <v>747</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>100</v>
@@ -28254,33 +28515,19 @@
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J37" s="3">
-        <v>3.149</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0.34244000000000002</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>125</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>100</v>
@@ -28294,19 +28541,19 @@
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>748</v>
+      <c r="C39" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>100</v>
@@ -28316,107 +28563,119 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="J39" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.73716999999999999</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J40" s="3">
-        <v>3.6859999999999999</v>
+        <v>3.43</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M40" s="3">
-        <v>0.73716999999999999</v>
+        <v>0.45873000000000003</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3.43</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M41" s="3">
-        <v>0.45873000000000003</v>
+        <v>0.67510000000000003</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>139</v>
+      <c r="C42" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>100</v>
@@ -28424,80 +28683,88 @@
       <c r="E42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="M42" s="3">
-        <v>0.67510000000000003</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>145</v>
+        <v>1.5931599999999999</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>146</v>
+      <c r="C43" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J43" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3.31</v>
+      </c>
       <c r="K43" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="M43" s="3">
-        <v>1.5931599999999999</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>151</v>
-      </c>
+        <v>0.43253000000000003</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="P43" s="3"/>
       <c r="Q43" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>100</v>
@@ -28509,41 +28776,37 @@
         <v>154</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J44" s="3">
-        <v>3.31</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="M44" s="3">
-        <v>0.43253000000000003</v>
+        <v>0.83638999999999997</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>100</v>
@@ -28555,37 +28818,37 @@
         <v>154</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3" t="s">
         <v>162</v>
       </c>
       <c r="J45" s="3">
-        <v>3.1890000000000001</v>
+        <v>3.69</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M45" s="3">
-        <v>0.83638999999999997</v>
+        <v>0.83567000000000002</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>100</v>
@@ -28597,37 +28860,37 @@
         <v>154</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J46" s="3">
-        <v>3.69</v>
+        <v>3.278</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="M46" s="3">
-        <v>0.83567000000000002</v>
+        <v>0.43823000000000001</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>169</v>
+      <c r="C47" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>100</v>
@@ -28639,37 +28902,37 @@
         <v>154</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="3" t="s">
-        <v>171</v>
+      <c r="I47" s="3">
+        <v>3.56</v>
       </c>
       <c r="J47" s="3">
-        <v>3.278</v>
+        <v>3.65</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M47" s="3">
-        <v>0.43823000000000001</v>
+        <v>0.45043</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>175</v>
+      <c r="C48" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>100</v>
@@ -28678,40 +28941,40 @@
         <v>153</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <v>3.56</v>
+      <c r="I48" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="J48" s="3">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M48" s="3">
-        <v>0.45043</v>
+        <v>0.39782000000000001</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>100</v>
@@ -28723,79 +28986,83 @@
         <v>181</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J49" s="3">
-        <v>2.9</v>
+        <v>3.726</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M49" s="3">
-        <v>0.39782000000000001</v>
+        <v>1.15286</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>187</v>
+      <c r="C50" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J50" s="3">
-        <v>3.726</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M50" s="3">
-        <v>1.15286</v>
+        <v>0.90963000000000005</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>192</v>
+        <v>200</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>100</v>
@@ -28807,41 +29074,37 @@
         <v>195</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J51" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2.964</v>
+      </c>
       <c r="K51" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M51" s="3">
-        <v>0.90963000000000005</v>
+        <v>0.90283000000000002</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>202</v>
+      <c r="C52" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>100</v>
@@ -28853,37 +29116,37 @@
         <v>195</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J52" s="3">
-        <v>2.964</v>
+        <v>3.07</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M52" s="3">
-        <v>0.90283000000000002</v>
+        <v>0.92398000000000002</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>100</v>
@@ -28895,37 +29158,37 @@
         <v>195</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J53" s="3">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M53" s="3">
-        <v>0.92398000000000002</v>
+        <v>0.90415999999999996</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>214</v>
+      <c r="C54" s="9" t="s">
+        <v>749</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>100</v>
@@ -28937,65 +29200,69 @@
         <v>195</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>215</v>
+        <v>750</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0.90415999999999996</v>
-      </c>
-      <c r="O54" s="11" t="s">
-        <v>219</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>749</v>
+      <c r="C55" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>750</v>
+        <v>223</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="J55" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="J55" s="3">
+        <v>2.83</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.45989000000000002</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>100</v>
@@ -29007,26 +29274,26 @@
         <v>222</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J56" s="3">
-        <v>2.83</v>
+        <v>2.89</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M56" s="3">
-        <v>0.45989000000000002</v>
+        <v>0.49779000000000001</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3" t="s">
@@ -29035,13 +29302,13 @@
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>228</v>
+      <c r="C57" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>100</v>
@@ -29053,41 +29320,37 @@
         <v>222</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J57" s="3">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M57" s="3">
-        <v>0.49779000000000001</v>
+        <v>0.48769000000000001</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>100</v>
@@ -29095,41 +29358,42 @@
       <c r="E58" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="G58" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2.79</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M58" s="3">
-        <v>0.48769000000000001</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>239</v>
+        <v>0.71243999999999996</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>240</v>
+      <c r="C59" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>100</v>
@@ -29137,37 +29401,45 @@
       <c r="E59" s="3" t="s">
         <v>221</v>
       </c>
+      <c r="F59" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="G59" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J59" s="3"/>
+        <v>249</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2.78</v>
+      </c>
       <c r="K59" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.45377000000000001</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>100</v>
@@ -29179,26 +29451,26 @@
         <v>247</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J60" s="3">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M60" s="3">
-        <v>0.45377000000000001</v>
+        <v>0.42515999999999998</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3" t="s">
@@ -29207,13 +29479,13 @@
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>253</v>
+      <c r="C61" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>100</v>
@@ -29228,23 +29500,23 @@
         <v>254</v>
       </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="3" t="s">
-        <v>255</v>
+      <c r="I61" s="3">
+        <v>2.65</v>
       </c>
       <c r="J61" s="3">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M61" s="3">
-        <v>0.42515999999999998</v>
+        <v>0.32011000000000001</v>
       </c>
       <c r="O61" s="11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3" t="s">
@@ -29253,13 +29525,13 @@
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>100</v>
@@ -29271,41 +29543,41 @@
         <v>247</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H62" s="3"/>
-      <c r="I62" s="3">
-        <v>2.65</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2.63</v>
-      </c>
+      <c r="I62" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M62" s="3">
-        <v>0.32011000000000001</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="P62" s="3"/>
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="Q62" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>263</v>
+      <c r="C63" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>100</v>
@@ -29321,20 +29593,22 @@
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J63" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="K63" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="O63" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="P63" s="11" t="s">
-        <v>269</v>
+        <v>273</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.72165000000000001</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>22</v>
@@ -29342,13 +29616,13 @@
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>100</v>
@@ -29357,43 +29631,44 @@
         <v>221</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="J64" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M64" s="3">
-        <v>0.72165000000000001</v>
+        <v>2.9226899999999998</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P64" s="3"/>
       <c r="Q64" s="3" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>100</v>
@@ -29402,89 +29677,89 @@
         <v>221</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>277</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="3" t="s">
-        <v>278</v>
+      <c r="I65" s="3">
+        <v>2.5299999999999998</v>
       </c>
       <c r="J65" s="3">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M65" s="3">
-        <v>2.9226899999999998</v>
+        <v>0.72338000000000002</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="3">
-        <v>2.5299999999999998</v>
+      <c r="I66" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="J66" s="3">
-        <v>2.6</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="M66" s="3">
-        <v>0.72338000000000002</v>
+        <v>0.72457000000000005</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="P66" s="11" t="s">
-        <v>286</v>
+        <v>294</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>100</v>
@@ -29496,41 +29771,37 @@
         <v>289</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J67" s="3">
-        <v>2.5630000000000002</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M67" s="3">
-        <v>0.72457000000000005</v>
+        <v>0.66718999999999995</v>
       </c>
       <c r="O67" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>100</v>
@@ -29542,37 +29813,37 @@
         <v>289</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J68" s="3">
-        <v>2.6150000000000002</v>
+        <v>2.76</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M68" s="3">
-        <v>0.66718999999999995</v>
+        <v>1.33725</v>
       </c>
       <c r="O68" s="11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>301</v>
+      <c r="C69" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>100</v>
@@ -29581,40 +29852,44 @@
         <v>288</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J69" s="3">
-        <v>2.76</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="H69" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="J69" s="3"/>
       <c r="K69" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="M69" s="3">
-        <v>1.33725</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>306</v>
+        <v>0.113</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>307</v>
+      <c r="C70" s="9" t="s">
+        <v>751</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>100</v>
@@ -29628,39 +29903,21 @@
       <c r="G70" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H70" s="3">
-        <v>2.65</v>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3" t="s">
+        <v>819</v>
       </c>
       <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0.113</v>
-      </c>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="71" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>100</v>
@@ -29675,20 +29932,20 @@
         <v>309</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="3" t="s">
-        <v>819</v>
+      <c r="I71" s="3">
+        <v>2.5</v>
       </c>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>752</v>
+      <c r="C72" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>100</v>
@@ -29697,26 +29954,36 @@
         <v>288</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3">
-        <v>2.5</v>
+        <v>314</v>
+      </c>
+      <c r="H72" s="3">
+        <v>2.25</v>
       </c>
       <c r="J72" s="3"/>
+      <c r="K72" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>100</v>
@@ -29728,33 +29995,38 @@
         <v>313</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H73" s="3">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="J73" s="3"/>
-      <c r="K73" s="3">
-        <v>1.37</v>
+      <c r="K73" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M73" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="M73" s="3">
+        <v>2.3410099999999998</v>
+      </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="P73" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="74" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>100</v>
@@ -29763,143 +30035,121 @@
         <v>288</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H74" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="J74" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J74" s="3">
+        <v>2.64</v>
+      </c>
       <c r="K74" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3" t="s">
-        <v>21</v>
+        <v>144</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0.72419</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H75" s="3"/>
+      <c r="C75" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H75" s="13"/>
       <c r="I75" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J75" s="3">
-        <v>2.64</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>144</v>
+        <v>327</v>
       </c>
       <c r="M75" s="3">
-        <v>0.72419</v>
+        <v>0.45352999999999999</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H76" s="13"/>
+      <c r="C76" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H76" s="3"/>
       <c r="I76" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="J76" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2.61</v>
+      </c>
       <c r="K76" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M76" s="3">
-        <v>0.45352999999999999</v>
+        <v>0.46050999999999997</v>
       </c>
       <c r="O76" s="11" t="s">
-        <v>328</v>
+        <v>333</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="J77" s="3">
-        <v>2.61</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="M77" s="3">
-        <v>0.46050999999999997</v>
-      </c>
-      <c r="O77" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="C78" s="5"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="79" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9" t="s">
@@ -29909,13 +30159,13 @@
     </row>
     <row r="81" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9" t="s">
@@ -29925,13 +30175,13 @@
     </row>
     <row r="82" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9" t="s">
@@ -29941,13 +30191,13 @@
     </row>
     <row r="83" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9" t="s">
@@ -29957,13 +30207,13 @@
     </row>
     <row r="84" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9" t="s">
@@ -29973,13 +30223,13 @@
     </row>
     <row r="85" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9" t="s">
@@ -29989,13 +30239,13 @@
     </row>
     <row r="86" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="9" t="s">
@@ -30005,13 +30255,13 @@
     </row>
     <row r="87" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9" t="s">
@@ -30021,13 +30271,13 @@
     </row>
     <row r="88" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9" t="s">
@@ -30037,65 +30287,89 @@
     </row>
     <row r="89" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="J89" s="9"/>
-    </row>
-    <row r="90" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="3">
-        <v>87</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C90" s="4" t="s">
         <v>726</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="J91" s="3">
+        <v>4.3129999999999997</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1.1526000000000001</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M91" s="3">
+        <v>1.53121</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>335</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H92" s="3"/>
-      <c r="I92" s="3">
-        <v>4.3179999999999996</v>
+      <c r="I92" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="J92" s="3">
-        <v>4.3129999999999997</v>
+        <v>3.859</v>
       </c>
       <c r="K92" s="3">
-        <v>1.1526000000000001</v>
+        <v>1.2056</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>337</v>
       </c>
       <c r="M92" s="3">
-        <v>1.53121</v>
+        <v>1.75231</v>
       </c>
       <c r="O92" s="11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3" t="s">
@@ -30104,38 +30378,38 @@
     </row>
     <row r="93" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>335</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H93" s="3"/>
-      <c r="I93" s="3" t="s">
-        <v>341</v>
+      <c r="I93" s="3">
+        <v>3.5939999999999999</v>
       </c>
       <c r="J93" s="3">
-        <v>3.859</v>
+        <v>3.5939999999999999</v>
       </c>
       <c r="K93" s="3">
-        <v>1.2056</v>
+        <v>1.1851</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>337</v>
       </c>
       <c r="M93" s="3">
-        <v>1.75231</v>
+        <v>1.6644300000000001</v>
       </c>
       <c r="O93" s="11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="3" t="s">
@@ -30144,38 +30418,38 @@
     </row>
     <row r="94" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>335</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H94" s="3"/>
-      <c r="I94" s="3">
-        <v>3.5939999999999999</v>
+      <c r="I94" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="J94" s="3">
-        <v>3.5939999999999999</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="K94" s="3">
-        <v>1.1851</v>
+        <v>1.1620999999999999</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>337</v>
       </c>
       <c r="M94" s="3">
-        <v>1.6644300000000001</v>
+        <v>1.5693900000000001</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3" t="s">
@@ -30184,409 +30458,409 @@
     </row>
     <row r="95" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>335</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="J95" s="3">
-        <v>4.1900000000000004</v>
+        <v>3.8479999999999999</v>
       </c>
       <c r="K95" s="3">
-        <v>1.1620999999999999</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>337</v>
       </c>
       <c r="M95" s="3">
-        <v>1.5693900000000001</v>
+        <v>1.7236800000000001</v>
       </c>
       <c r="O95" s="11" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P95" s="3"/>
       <c r="Q95" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="3">
-        <v>92</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3.8479999999999999</v>
-      </c>
-      <c r="K96" s="3">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="M96" s="3">
-        <v>1.7236800000000001</v>
-      </c>
-      <c r="O96" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3" t="s">
-        <v>94</v>
+    <row r="97" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>93</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>823</v>
+        <v>756</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>757</v>
+      <c r="C100" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>758</v>
+        <v>91</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4.133</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>824</v>
+        <v>356</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.25763000000000003</v>
+      </c>
+      <c r="O100" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>354</v>
+      <c r="C101" s="9" t="s">
+        <v>759</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>91</v>
+        <v>760</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="J101" s="3">
-        <v>4.133</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>356</v>
+        <v>826</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M101" s="3">
-        <v>0.25763000000000003</v>
-      </c>
-      <c r="O101" s="11" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="102" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H102" s="3"/>
-      <c r="I102" s="3" t="s">
-        <v>825</v>
+      <c r="I102" s="3">
+        <v>4.2</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="L103" s="3" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J104" s="13"/>
+      <c r="K104" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.81481000000000003</v>
+      </c>
+      <c r="O104" s="11" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>359</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H105" s="13"/>
+        <v>365</v>
+      </c>
+      <c r="H105" s="3"/>
       <c r="I105" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="J105" s="13"/>
+        <v>366</v>
+      </c>
+      <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>362</v>
       </c>
       <c r="M105" s="3">
-        <v>0.81481000000000003</v>
+        <v>0.73036999999999996</v>
       </c>
       <c r="O105" s="11" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>359</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="3" t="s">
-        <v>366</v>
+      <c r="I106" s="3">
+        <v>2.2999999999999998</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M106" s="3">
-        <v>0.73036999999999996</v>
+        <v>0.76163000000000003</v>
       </c>
       <c r="O106" s="11" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>359</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H107" s="3"/>
-      <c r="I107" s="3">
-        <v>2.2999999999999998</v>
+      <c r="I107" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M107" s="3">
-        <v>0.76163000000000003</v>
+        <v>0.81257000000000001</v>
       </c>
       <c r="O107" s="11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="3">
-        <v>102</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="M108" s="3">
-        <v>0.81257000000000001</v>
-      </c>
-      <c r="O108" s="11" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="3">
+        <v>103</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J109" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0.72016000000000002</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>380</v>
+        <v>897</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="G110" s="3" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="J110" s="3">
-        <v>2.56</v>
+        <v>3.16</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>384</v>
+        <v>144</v>
       </c>
       <c r="M110" s="3">
-        <v>0.72016000000000002</v>
+        <v>0.52759</v>
       </c>
       <c r="O110" s="11" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3" t="s">
@@ -30595,38 +30869,38 @@
     </row>
     <row r="111" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>381</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J111" s="3">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>144</v>
       </c>
       <c r="M111" s="3">
-        <v>0.52759</v>
-      </c>
-      <c r="O111" s="11" t="s">
-        <v>390</v>
+        <v>0.54059000000000001</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="P111" s="3"/>
       <c r="Q111" s="3" t="s">
@@ -30635,38 +30909,38 @@
     </row>
     <row r="112" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>381</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J112" s="3">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>144</v>
       </c>
       <c r="M112" s="3">
-        <v>0.54059000000000001</v>
-      </c>
-      <c r="O112" s="7" t="s">
-        <v>395</v>
+        <v>0.52603</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3" t="s">
@@ -30675,78 +30949,78 @@
     </row>
     <row r="113" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J113" s="3">
-        <v>3.18</v>
+        <v>2.14</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>144</v>
+        <v>406</v>
       </c>
       <c r="M113" s="3">
-        <v>0.52603</v>
+        <v>0.32529000000000002</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="P113" s="3"/>
       <c r="Q113" s="3" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>402</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J114" s="3">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>406</v>
+        <v>58</v>
       </c>
       <c r="M114" s="3">
-        <v>0.32529000000000002</v>
+        <v>1.88005</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3" t="s">
@@ -30755,204 +31029,212 @@
     </row>
     <row r="115" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>408</v>
+      <c r="C115" s="9" t="s">
+        <v>763</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>402</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="J115" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M115" s="3">
-        <v>1.88005</v>
-      </c>
-      <c r="O115" s="11" t="s">
-        <v>412</v>
+        <v>764</v>
       </c>
       <c r="P115" s="3"/>
       <c r="Q115" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="3">
-        <v>109</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="P116" s="3"/>
-      <c r="Q116" s="3" t="s">
-        <v>22</v>
+    <row r="117" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="3">
+        <v>110</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>765</v>
+      <c r="C118" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>414</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="3">
-        <v>111</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G119" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3" t="s">
+      <c r="H118" s="3"/>
+      <c r="I118" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3" t="s">
+      <c r="J118" s="3"/>
+      <c r="K118" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="L118" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="M119" s="3">
+      <c r="M118" s="3">
         <v>0.38096999999999998</v>
       </c>
-      <c r="O119" s="11" t="s">
+      <c r="O118" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="P119" s="11" t="s">
+      <c r="P118" s="11" t="s">
         <v>420</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>112</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H120" s="3">
+        <v>3.96</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M120">
+        <v>0.29316999999999999</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P120" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>422</v>
+        <v>34</v>
       </c>
       <c r="H121" s="3">
-        <v>3.96</v>
+        <v>2.94</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>424</v>
+        <v>58</v>
+      </c>
+      <c r="M121">
+        <v>0.22691</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="P121" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="122" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H122" s="3">
-        <v>2.94</v>
+        <v>428</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>58</v>
+        <v>424</v>
+      </c>
+      <c r="M122">
+        <v>0.28276000000000001</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="P122" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="123" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
+      </c>
+      <c r="H123" s="3">
+        <v>2.25</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>21</v>
@@ -30960,29 +31242,22 @@
     </row>
     <row r="124" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>431</v>
+      <c r="C124" s="9" t="s">
+        <v>767</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="H124" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="J124" s="3"/>
+        <v>768</v>
+      </c>
       <c r="K124" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>434</v>
+        <v>828</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>21</v>
@@ -30990,717 +31265,939 @@
     </row>
     <row r="125" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="3">
-        <v>117</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="O126" s="3" t="s">
+    <row r="127" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="3">
+        <v>118</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H127" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="O127" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H128" s="3">
-        <v>2.7</v>
+        <v>440</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>438</v>
+        <v>58</v>
+      </c>
+      <c r="M128">
+        <v>0.30547999999999997</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="P128" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="H129" s="3">
+        <v>4.5</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="M129">
+        <v>0.34697</v>
+      </c>
       <c r="O129" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="3">
-        <v>120</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="H130" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="L130" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O130" s="3" t="s">
+      <c r="P129" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="3">
+        <v>121</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="H131" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="O131" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>830</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H132" s="3">
-        <v>4.29</v>
+        <v>4.08</v>
       </c>
       <c r="J132" s="3"/>
-      <c r="K132" s="3" t="s">
-        <v>831</v>
+      <c r="K132" s="3">
+        <v>0.98799999999999999</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>830</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H133" s="3">
-        <v>4.08</v>
+        <v>2.88</v>
       </c>
       <c r="J133" s="3"/>
-      <c r="K133" s="3">
-        <v>0.98799999999999999</v>
+      <c r="K133" s="3" t="s">
+        <v>832</v>
       </c>
       <c r="O133" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A134" s="3">
-        <v>123</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="H134" s="3">
-        <v>2.88</v>
-      </c>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="O134" s="3" t="s">
+    <row r="135" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="3">
+        <v>124</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H135" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M135">
+        <v>0.70781000000000005</v>
+      </c>
+      <c r="O135" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>447</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H136" s="3">
-        <v>2.66</v>
+        <v>1.49</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>58</v>
+        <v>453</v>
+      </c>
+      <c r="M136">
+        <v>1.46034</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="P136" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>447</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H137" s="3">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>453</v>
+        <v>457</v>
+      </c>
+      <c r="M137">
+        <v>0.48583999999999999</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="P137" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>454</v>
+      <c r="C138" s="9" t="s">
+        <v>777</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>447</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>455</v>
+        <v>778</v>
       </c>
       <c r="H138" s="3">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>457</v>
+        <v>833</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>447</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H139" s="3">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="O139" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>779</v>
+      <c r="C140" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>447</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>780</v>
+        <v>459</v>
       </c>
       <c r="H140" s="3">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>834</v>
+        <v>460</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M140">
+        <v>0.97521999999999998</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="3">
-        <v>129</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H141" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O141" s="3" t="s">
+      <c r="P140" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="3">
+        <v>130</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="H142" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O142" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="3">
-        <v>130</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="H143" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O143" s="3" t="s">
-        <v>21</v>
+    <row r="144" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="3">
+        <v>131</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>793</v>
+      <c r="C150" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>794</v>
+        <v>463</v>
+      </c>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J150" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="L150" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="M150" s="3">
+        <v>0.28626000000000001</v>
+      </c>
+      <c r="O150" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="J151" s="3">
-        <v>4.2699999999999996</v>
+        <v>5.34</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="L151" s="18" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="M151" s="3">
-        <v>0.28626000000000001</v>
+        <v>0.29881999999999997</v>
       </c>
       <c r="O151" s="11" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>468</v>
+      <c r="C152" s="9" t="s">
+        <v>795</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="J152" s="3">
-        <v>5.34</v>
-      </c>
-      <c r="K152" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="M152" s="3">
-        <v>0.29881999999999997</v>
-      </c>
-      <c r="O152" s="11" t="s">
-        <v>473</v>
+        <v>796</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="3">
-        <v>141</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G155" s="3" t="s">
         <v>800</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="D156" s="36"/>
+    </row>
+    <row r="157" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="3">
+        <v>142</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>900</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G158" s="36" t="s">
+        <v>905</v>
+      </c>
+      <c r="J158">
+        <v>8.14</v>
+      </c>
+      <c r="K158" s="36" t="s">
+        <v>906</v>
+      </c>
+      <c r="L158" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M158">
+        <v>0.15922</v>
+      </c>
+      <c r="O158" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>143</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>896</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G159" s="36" t="s">
+        <v>907</v>
+      </c>
+      <c r="J159">
+        <v>6.11</v>
+      </c>
+      <c r="K159" s="36" t="s">
+        <v>909</v>
+      </c>
+      <c r="L159" s="36" t="s">
+        <v>908</v>
+      </c>
+      <c r="M159">
+        <v>7.7829999999999996E-2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>145</v>
+      </c>
+      <c r="B160" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>898</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>903</v>
+      </c>
+      <c r="G160" s="36" t="s">
+        <v>904</v>
+      </c>
+      <c r="J160">
+        <v>2.11</v>
+      </c>
+      <c r="K160" s="36" t="s">
+        <v>910</v>
+      </c>
+      <c r="L160" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M160">
+        <v>0.31907000000000002</v>
+      </c>
+      <c r="O160" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>146</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>911</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G161" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="I161">
+        <v>5.18</v>
+      </c>
+      <c r="J161">
+        <v>5.2</v>
+      </c>
+      <c r="K161" s="36" t="s">
+        <v>913</v>
+      </c>
+      <c r="L161" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="M161">
+        <v>0.28816000000000003</v>
+      </c>
+      <c r="O161" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="3">
+        <v>147</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>899</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="G162" s="36" t="s">
+        <v>914</v>
+      </c>
+      <c r="I162">
+        <v>2.78</v>
+      </c>
+      <c r="J162">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="L162" s="36" t="s">
+        <v>915</v>
+      </c>
+      <c r="M162">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="O162" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>148</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>728</v>
+      </c>
+      <c r="D163" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G163" s="36" t="s">
+        <v>729</v>
+      </c>
+      <c r="H163" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="I163" s="36" t="s">
+        <v>921</v>
+      </c>
+      <c r="J163">
+        <v>2.16</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="M163">
+        <v>0.25774999999999998</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P163" t="s">
+        <v>922</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O11" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="O12" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="O14" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="O15" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="O22" r:id="rId5" location=".ZBXL4HbMIX6" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="O25" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="O31" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="O35" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="O37" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="O40" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="O41" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="O42" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="O43" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="P43" r:id="rId14" location=".ZBhiznbMIX6" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="O44" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="O45" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="O46" r:id="rId17" location=".ZBhlNnbMIX4" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="O47" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="O48" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="O49" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="O50" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="O51" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="O52" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="O53" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="O54" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
-    <hyperlink ref="O56" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
-    <hyperlink ref="O57" r:id="rId27" location=".ZBh2iXbMIX7" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
-    <hyperlink ref="O58" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
-    <hyperlink ref="O59" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
-    <hyperlink ref="O60" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
-    <hyperlink ref="O61" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
-    <hyperlink ref="O62" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
-    <hyperlink ref="O63" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
-    <hyperlink ref="P63" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
-    <hyperlink ref="O64" r:id="rId35" location=".ZB2TX3bMIX4" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
-    <hyperlink ref="O65" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
-    <hyperlink ref="O66" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
-    <hyperlink ref="P66" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
-    <hyperlink ref="O67" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
-    <hyperlink ref="O68" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
-    <hyperlink ref="O69" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
-    <hyperlink ref="P70" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
-    <hyperlink ref="O75" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
-    <hyperlink ref="O76" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
-    <hyperlink ref="O77" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
-    <hyperlink ref="O92" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
-    <hyperlink ref="O93" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
-    <hyperlink ref="O94" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
-    <hyperlink ref="O95" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
-    <hyperlink ref="O96" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
-    <hyperlink ref="O101" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
-    <hyperlink ref="O105" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
-    <hyperlink ref="O106" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
-    <hyperlink ref="O107" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
-    <hyperlink ref="O108" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
-    <hyperlink ref="O110" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
-    <hyperlink ref="O111" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
-    <hyperlink ref="O112" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
-    <hyperlink ref="O113" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
-    <hyperlink ref="O114" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
-    <hyperlink ref="O115" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
-    <hyperlink ref="O119" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
-    <hyperlink ref="P119" r:id="rId63" location=".ZBkfqXbMIX4" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
-    <hyperlink ref="O151" r:id="rId64" location=".ZBXYBHbMIX6" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
-    <hyperlink ref="O152" r:id="rId65" location=".ZBXZJXbMIX5" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
+    <hyperlink ref="O10" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="O11" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="O13" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="O14" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="O21" r:id="rId5" location=".ZBXL4HbMIX6" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="O24" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="O30" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="O34" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="O36" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="O39" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="O40" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="O41" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="O42" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="P42" r:id="rId14" location=".ZBhiznbMIX6" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="O43" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="O44" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="O45" r:id="rId17" location=".ZBhlNnbMIX4" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="O46" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="O47" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="O48" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="O49" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="O50" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="O51" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="O52" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="O53" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="O55" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="O56" r:id="rId27" location=".ZBh2iXbMIX7" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="O57" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="O58" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="O59" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="O60" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="O61" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="O62" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="P62" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="O63" r:id="rId35" location=".ZB2TX3bMIX4" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="O64" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="O65" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="P65" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="O66" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
+    <hyperlink ref="O67" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
+    <hyperlink ref="O68" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
+    <hyperlink ref="P69" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
+    <hyperlink ref="O74" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
+    <hyperlink ref="O75" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
+    <hyperlink ref="O76" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
+    <hyperlink ref="O91" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
+    <hyperlink ref="O92" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
+    <hyperlink ref="O93" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
+    <hyperlink ref="O94" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
+    <hyperlink ref="O95" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
+    <hyperlink ref="O100" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
+    <hyperlink ref="O104" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
+    <hyperlink ref="O105" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
+    <hyperlink ref="O106" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
+    <hyperlink ref="O107" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
+    <hyperlink ref="O109" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
+    <hyperlink ref="O110" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
+    <hyperlink ref="O111" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
+    <hyperlink ref="O112" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
+    <hyperlink ref="O113" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
+    <hyperlink ref="O114" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
+    <hyperlink ref="O118" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
+    <hyperlink ref="P118" r:id="rId63" location=".ZBkfqXbMIX4" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
+    <hyperlink ref="O150" r:id="rId64" location=".ZBXYBHbMIX6" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
+    <hyperlink ref="O151" r:id="rId65" location=".ZBXZJXbMIX5" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId66"/>
@@ -37819,7 +38316,7 @@
   <customSheetViews>
     <customSheetView guid="{792088DD-006F-4892-AA85-FB780C0CD3AF}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="D1:D1003" xr:uid="{B2057A54-AEAB-D145-A8B4-D502734443E9}"/>
+      <autoFilter ref="D1:D1003" xr:uid="{2FEA0468-D9B1-B94B-AA46-C065031FCC9E}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
